--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.903279333333334</v>
+        <v>8.979873666666666</v>
       </c>
       <c r="N2">
-        <v>20.709838</v>
+        <v>26.939621</v>
       </c>
       <c r="O2">
-        <v>0.3155532251262234</v>
+        <v>0.3651616045144693</v>
       </c>
       <c r="P2">
-        <v>0.3155532251262234</v>
+        <v>0.3651616045144694</v>
       </c>
       <c r="Q2">
-        <v>0.2700585886131111</v>
+        <v>0.3512956511312222</v>
       </c>
       <c r="R2">
-        <v>2.430527297518</v>
+        <v>3.161660860181</v>
       </c>
       <c r="S2">
-        <v>0.3155532251262234</v>
+        <v>0.3651616045144693</v>
       </c>
       <c r="T2">
-        <v>0.3155532251262234</v>
+        <v>0.3651616045144694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.482718999999999</v>
+        <v>4.482719</v>
       </c>
       <c r="N3">
         <v>13.448157</v>
       </c>
       <c r="O3">
-        <v>0.2049078951440275</v>
+        <v>0.1822872930499836</v>
       </c>
       <c r="P3">
-        <v>0.2049078951440275</v>
+        <v>0.1822872930499837</v>
       </c>
       <c r="Q3">
-        <v>0.1753654615196666</v>
+        <v>0.1753654615196667</v>
       </c>
       <c r="R3">
         <v>1.578289153677</v>
       </c>
       <c r="S3">
-        <v>0.2049078951440275</v>
+        <v>0.1822872930499836</v>
       </c>
       <c r="T3">
-        <v>0.2049078951440275</v>
+        <v>0.1822872930499837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.803624666666668</v>
+        <v>9.285498666666667</v>
       </c>
       <c r="N4">
-        <v>26.410874</v>
+        <v>27.856496</v>
       </c>
       <c r="O4">
-        <v>0.4024192014009149</v>
+        <v>0.3775896763919173</v>
       </c>
       <c r="P4">
-        <v>0.4024192014009149</v>
+        <v>0.3775896763919173</v>
       </c>
       <c r="Q4">
-        <v>0.3444007315015556</v>
+        <v>0.3632518030062222</v>
       </c>
       <c r="R4">
-        <v>3.099606583514</v>
+        <v>3.269266227056</v>
       </c>
       <c r="S4">
-        <v>0.4024192014009149</v>
+        <v>0.3775896763919173</v>
       </c>
       <c r="T4">
-        <v>0.4024192014009149</v>
+        <v>0.3775896763919173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.687128</v>
+        <v>1.843414333333333</v>
       </c>
       <c r="N5">
-        <v>5.061384</v>
+        <v>5.530243</v>
       </c>
       <c r="O5">
-        <v>0.07711967832883411</v>
+        <v>0.07496142604362967</v>
       </c>
       <c r="P5">
-        <v>0.07711967832883411</v>
+        <v>0.07496142604362969</v>
       </c>
       <c r="Q5">
-        <v>0.06600100973600001</v>
+        <v>0.07211498319144445</v>
       </c>
       <c r="R5">
-        <v>0.594009087624</v>
+        <v>0.649034848723</v>
       </c>
       <c r="S5">
-        <v>0.07711967832883411</v>
+        <v>0.07496142604362967</v>
       </c>
       <c r="T5">
-        <v>0.07711967832883411</v>
+        <v>0.07496142604362969</v>
       </c>
     </row>
   </sheetData>
